--- a/Inputs/IMG_ROW/benefits.xlsx
+++ b/Inputs/IMG_ROW/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="124">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependsOn</t>
   </si>
   <si>
     <t xml:space="preserve">Pro</t>
@@ -473,7 +476,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -564,6 +567,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -705,7 +714,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -798,6 +807,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -830,19 +843,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,15 +863,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,13 +952,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="62.43"/>
@@ -978,82 +991,85 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="12"/>
@@ -1063,79 +1079,79 @@
     </row>
     <row r="6" customFormat="false" ht="91.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="91.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -1145,125 +1161,125 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
@@ -1273,148 +1289,148 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
@@ -1424,102 +1440,108 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="14" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="15"/>
@@ -1529,253 +1551,256 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="26" t="s">
+      <c r="D29" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>47</v>
+        <v>81</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="114.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="C32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="F32" s="28" t="s">
         <v>87</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>100</v>
+      <c r="D37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="15"/>
@@ -1784,80 +1809,80 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>105</v>
+      <c r="E40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="30" t="n">
+      <c r="D41" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="31" t="n">
         <v>0.04</v>
       </c>
-      <c r="F41" s="30" t="n">
+      <c r="F41" s="31" t="n">
         <v>0.04</v>
       </c>
-      <c r="G41" s="30" t="n">
+      <c r="G41" s="31" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="30" t="n">
+        <v>108</v>
+      </c>
+      <c r="C42" s="31" t="n">
         <v>0.04</v>
       </c>
-      <c r="D42" s="30" t="n">
+      <c r="D42" s="31" t="n">
         <v>0.04</v>
       </c>
-      <c r="E42" s="30" t="n">
+      <c r="E42" s="31" t="n">
         <v>0.07</v>
       </c>
-      <c r="F42" s="30" t="n">
+      <c r="F42" s="31" t="n">
         <v>0.07</v>
       </c>
-      <c r="G42" s="30" t="n">
+      <c r="G42" s="31" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="31" t="n">
         <v>0.07</v>
       </c>
-      <c r="D43" s="30" t="n">
+      <c r="D43" s="31" t="n">
         <v>0.07</v>
       </c>
       <c r="E43" s="15"/>
@@ -1866,196 +1891,196 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>109</v>
+        <v>15</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="C44" s="14"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="C45" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>112</v>
+      <c r="D45" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="38" t="s">
+      <c r="A46" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>114</v>
+      <c r="C46" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>115</v>
+        <v>15</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="D48" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="E48" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="C49" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="E49" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="C50" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="E50" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>121</v>
+        <v>15</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>116</v>
-      </c>
       <c r="E51" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>122</v>
+        <v>15</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="C52" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="G52" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/IMG_ROW/benefits.xlsx
+++ b/Inputs/IMG_ROW/benefits.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="122">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -173,7 +174,10 @@
     <t xml:space="preserve">Diagnostics &amp; Test</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered with $ </t>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered</t>
   </si>
   <si>
     <t xml:space="preserve">Surgeries &amp; Anesthesia</t>
@@ -185,13 +189,13 @@
     <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to a lifetime limit of USD 100,000 with $ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to a lifetime limit of USD 250,000 with $ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to a lifetime limit of USD 500,000 with $ </t>
+    <t xml:space="preserve">Covered up to a lifetime limit of USD 100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to a lifetime limit of USD 250,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to a lifetime limit of USD 500,000</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
@@ -203,28 +207,25 @@
     <t xml:space="preserve">Not Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to OP limit of USD 5,000 with $ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to OP limit of USD 10,000 with $ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with $ </t>
+    <t xml:space="preserve">Covered up to OP limit of USD 5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to OP limit of USD 10,000</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient Specialists</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre &amp; post-operative consultations within 30 days of surgery  covered up to OP limit of USD 2,500 with $ </t>
+    <t xml:space="preserve">Pre &amp; post-operative consultations within 30 days of surgery  covered up to OP limit of USD 2,500</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient Medicines</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre &amp; post-operative consultations within 30 days of surgery  covered up to USD 500 within OP limit of USD 2,500 with $ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 1,000 with $ </t>
+    <t xml:space="preserve">Pre &amp; post-operative consultations within 30 days of surgery  covered up to USD 500 within OP limit of USD 2,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 1,000</t>
   </si>
   <si>
     <t xml:space="preserve">Vaccination</t>
@@ -239,7 +240,7 @@
     <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to USD 250 per diagnostic procedure within OP limit of USD 2,500 with $ </t>
+    <t xml:space="preserve">Covered up to USD 250 per diagnostic procedure within OP limit of USD 2,500</t>
   </si>
   <si>
     <t xml:space="preserve">Physiotherapy</t>
@@ -438,12 +439,6 @@
     <t xml:space="preserve">NIL excess/USD 50 excess/USD 150 excess/USD 300 excess/USD 500 excess/USD 1,000 excess/USD 2,500 excess/USD 5,000 excess/USD 7,500 excess</t>
   </si>
   <si>
-    <t xml:space="preserve">$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIL excess-USD 50 excess-USD 150 excess-USD 300 excess-USD 500 excess-USD 1,000 excess-USD 2,500 excess-USD 5,000 excess-USD 7,500 excess</t>
-  </si>
-  <si>
     <t xml:space="preserve">In-patient only</t>
   </si>
   <si>
@@ -476,7 +471,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -569,12 +564,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="9"/>
@@ -595,28 +584,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF172B4D"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -714,7 +681,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,7 +774,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,36 +810,24 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -934,7 +889,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF172B4D"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -952,13 +907,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="62.43"/>
@@ -1192,17 +1147,17 @@
       <c r="C11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,22 +1165,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,22 +1188,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,22 +1211,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="12"/>
@@ -1287,27 +1242,27 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,19 +1276,19 @@
         <v>53</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1347,13 +1302,13 @@
         <v>56</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,13 +1319,13 @@
         <v>57</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>58</v>
@@ -1390,16 +1345,16 @@
         <v>61</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,10 +1574,10 @@
         <v>81</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>82</v>
@@ -1642,10 +1597,10 @@
         <v>85</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>86</v>
@@ -1665,10 +1620,10 @@
         <v>89</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>90</v>
@@ -1688,13 +1643,13 @@
         <v>93</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>94</v>
@@ -1922,27 +1877,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>115</v>
+      <c r="D46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,22 +1905,22 @@
         <v>15</v>
       </c>
       <c r="B47" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="D47" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,22 +1928,22 @@
         <v>15</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,22 +1951,22 @@
         <v>15</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,22 +1974,22 @@
         <v>15</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,45 +1997,22 @@
         <v>15</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2092,4 +2024,51 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>